--- a/PicoGreen_Plots/20240317_PicoGreen_water.xlsx
+++ b/PicoGreen_Plots/20240317_PicoGreen_water.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/PicoGreen_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E282A155-076A-CE40-BD36-02BDDBA73E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD66E45-8D3E-7441-A085-7C2490DBAC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3340" yWindow="660" windowWidth="20940" windowHeight="15980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2961,7 +2961,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2982,9 +2982,9 @@
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
     </row>
-    <row r="2" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="21" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B2" s="19">
         <v>0</v>

--- a/PicoGreen_Plots/20240317_PicoGreen_water.xlsx
+++ b/PicoGreen_Plots/20240317_PicoGreen_water.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/PicoGreen_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD66E45-8D3E-7441-A085-7C2490DBAC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263A37DF-7CDA-064F-8395-3D50BB846F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="660" windowWidth="20940" windowHeight="15980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3340" yWindow="660" windowWidth="20940" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
@@ -1044,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:P58"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54:P58"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="P55" sqref="P55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2265,7 +2265,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2348,7 +2348,7 @@
         <v>19.857828011475306</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f>C4/C$2*100</f>
         <v>8.9771683042341124</v>
       </c>
       <c r="F4">
@@ -2960,8 +2960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FA2F21-628C-F549-BC91-51053017DEA1}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
